--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.9.4.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.9.4.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07609EFD-05FC-4A68-A94B-5CAA2CAA1C7B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F5723B-3C1D-4C85-B116-F374361E030F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
